--- a/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T08:51:34+00:00</t>
+    <t>2024-03-13T09:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include ValueSets 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include ValueSets 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include ValueSets 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include ValueSet #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include ValueSet #4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -52,7 +52,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:14:58+00:00</t>
+    <t>2024-12-09T14:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,10 +58,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T14:32:19+00:00</t>
+    <t>2025-03-17T13:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>ValueSet regroupant des valuesets du NOS pour le code de la division territoriale</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -308,64 +314,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -387,12 +397,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -414,12 +424,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -441,12 +451,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -468,12 +478,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -495,12 +505,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/www/ig/fhir/ror/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:25:57+00:00</t>
+    <t>2025-07-30T09:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
